--- a/run_records_clean.xlsx
+++ b/run_records_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongyuzhang/Library/Mobile Documents/com~apple~CloudDocs/Documents/Education/College/Research/PFURO_2023/SPARC_summer_23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2149CD8A-3558-AC46-8C13-8E96A24A5F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0A17DC-6C1A-344A-9616-D5AA38B43F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="680" windowWidth="28040" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28420" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="run_records_clean" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>runID</t>
   </si>
@@ -53,6 +53,108 @@
   </si>
   <si>
     <t>Turning off mhd and see if there is no aborted markers</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with mhd 1e-4</t>
+  </si>
+  <si>
+    <t>See if setting an psi0_offset in the sparc_write_bfield_2d_hdf5 reduces the number of aborted markers</t>
+  </si>
+  <si>
+    <t>The base run for the study of aborted markers due to boozer coodinate</t>
+  </si>
+  <si>
+    <t>The case with twice the psipad_axis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increasing the resolution of the boozer grid and see improvement </t>
+  </si>
+  <si>
+    <t>The case with half the psipad_axis</t>
+  </si>
+  <si>
+    <t>19 aborted due to boozer</t>
+  </si>
+  <si>
+    <t>24 aborted due to boozer</t>
+  </si>
+  <si>
+    <t>34 aborted due to boozer</t>
+  </si>
+  <si>
+    <t>28 aborted due to boozer</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with no mhd. First set of four with psi0_offset</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with mhd = 1e-5. Second set of four with psi0_offset</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with mhd = 1e-4. Third set of four with psi0_offset</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with mhd = 1e-3. Fourth set of four with psi0_offset</t>
+  </si>
+  <si>
+    <t>68 aborted</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66 aborted</t>
+  </si>
+  <si>
+    <t>75 aborted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing Steve's new boozer wrapper with pol_radius_fake = 1.e-3 </t>
+  </si>
+  <si>
+    <t>Testing Steve's new boozer wrapper with pol_radius_fake = 1.e-4</t>
+  </si>
+  <si>
+    <t>Testing Steve's new boozer wrapper with pol_radius_fake = 1.e-5</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with mhd = 1e-2. Set 5</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with mhd = 1e-1. Set 6</t>
+  </si>
+  <si>
+    <t>27 aborted</t>
+  </si>
+  <si>
+    <t>22 aborted</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with no mhd. Second run to see statistical variation.</t>
+  </si>
+  <si>
+    <t>Based off of the base run but with new ASCOT version</t>
+  </si>
+  <si>
+    <t>7133b</t>
+  </si>
+  <si>
+    <t>7133a</t>
+  </si>
+  <si>
+    <t>Start of a series of studies on effect of gyro on final distribution. Gyro = 0.</t>
+  </si>
+  <si>
+    <t>Second of a series of studies on effect of gyro on final distribution. Gyro = 50.</t>
+  </si>
+  <si>
+    <t>Third of a series of studies on effect of gyro on final distribution. Gyro = 100</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with mhd = 0.8. Set 7</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with mhd = 0.6. Set 8</t>
   </si>
 </sst>
 </file>
@@ -536,8 +638,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -893,15 +999,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="261" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="167" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="84.5" customWidth="1"/>
+    <col min="7" max="7" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -931,7 +1039,7 @@
       <c r="B2">
         <v>7111</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>12055080</v>
       </c>
       <c r="D2">
@@ -954,7 +1062,7 @@
       <c r="B3">
         <v>7112</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>12060152</v>
       </c>
       <c r="D3">
@@ -974,7 +1082,7 @@
       <c r="B4">
         <v>7105</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>12231478</v>
       </c>
       <c r="D4">
@@ -992,9 +1100,9 @@
         <v>7116</v>
       </c>
       <c r="B5">
-        <v>7115</v>
-      </c>
-      <c r="C5">
+        <v>7114</v>
+      </c>
+      <c r="C5" s="1">
         <v>12311117</v>
       </c>
       <c r="D5">
@@ -1005,6 +1113,500 @@
       </c>
       <c r="F5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>7117</v>
+      </c>
+      <c r="B6">
+        <v>7106</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12392480</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7118</v>
+      </c>
+      <c r="B7">
+        <v>7116</v>
+      </c>
+      <c r="C7" s="1">
+        <v>12404151</v>
+      </c>
+      <c r="D7">
+        <v>5082</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7119</v>
+      </c>
+      <c r="B8">
+        <v>7118</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12453404</v>
+      </c>
+      <c r="D8">
+        <v>5082</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7120</v>
+      </c>
+      <c r="B9">
+        <v>7119</v>
+      </c>
+      <c r="C9">
+        <v>12454497</v>
+      </c>
+      <c r="D9">
+        <v>5082</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7121</v>
+      </c>
+      <c r="B10">
+        <v>7118</v>
+      </c>
+      <c r="C10">
+        <v>12465522</v>
+      </c>
+      <c r="D10">
+        <v>5082</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7122</v>
+      </c>
+      <c r="B11">
+        <v>7118</v>
+      </c>
+      <c r="C11">
+        <v>12462873</v>
+      </c>
+      <c r="D11">
+        <v>5082</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7123</v>
+      </c>
+      <c r="B12">
+        <v>7117</v>
+      </c>
+      <c r="C12">
+        <v>12488019</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7124</v>
+      </c>
+      <c r="B13">
+        <v>7123</v>
+      </c>
+      <c r="C13">
+        <v>12488308</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7125</v>
+      </c>
+      <c r="B14">
+        <v>7124</v>
+      </c>
+      <c r="C14">
+        <v>12488377</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7126</v>
+      </c>
+      <c r="B15">
+        <v>7124</v>
+      </c>
+      <c r="C15">
+        <v>12488912</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7127</v>
+      </c>
+      <c r="B16">
+        <v>7119</v>
+      </c>
+      <c r="C16">
+        <v>12529287</v>
+      </c>
+      <c r="D16">
+        <v>5082</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7128</v>
+      </c>
+      <c r="B17">
+        <v>7127</v>
+      </c>
+      <c r="C17">
+        <v>12558507</v>
+      </c>
+      <c r="D17">
+        <v>5082</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7129</v>
+      </c>
+      <c r="B18">
+        <v>7128</v>
+      </c>
+      <c r="C18">
+        <v>12558634</v>
+      </c>
+      <c r="D18">
+        <v>5082</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7130</v>
+      </c>
+      <c r="B19">
+        <v>7126</v>
+      </c>
+      <c r="C19">
+        <v>12559324</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7131</v>
+      </c>
+      <c r="B20">
+        <v>7130</v>
+      </c>
+      <c r="C20">
+        <v>12559500</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7132</v>
+      </c>
+      <c r="B21">
+        <v>7123</v>
+      </c>
+      <c r="C21">
+        <v>12623107</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7133</v>
+      </c>
+      <c r="B22">
+        <v>7119</v>
+      </c>
+      <c r="C22" s="1">
+        <v>12617838</v>
+      </c>
+      <c r="D22">
+        <v>5082</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>7133</v>
+      </c>
+      <c r="C23">
+        <v>12623082</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>12623866</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>12639727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7134</v>
+      </c>
+      <c r="B26">
+        <v>7118</v>
+      </c>
+      <c r="C26">
+        <v>12674017</v>
+      </c>
+      <c r="D26">
+        <v>5082</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7135</v>
+      </c>
+      <c r="B27">
+        <v>7134</v>
+      </c>
+      <c r="C27">
+        <v>12674246</v>
+      </c>
+      <c r="D27">
+        <v>5082</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>7136</v>
+      </c>
+      <c r="B28">
+        <v>7135</v>
+      </c>
+      <c r="C28">
+        <v>12674407</v>
+      </c>
+      <c r="D28">
+        <v>5082</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>7137</v>
+      </c>
+      <c r="B29">
+        <v>7131</v>
+      </c>
+      <c r="C29">
+        <v>12704077</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>7138</v>
+      </c>
+      <c r="B30">
+        <v>7137</v>
+      </c>
+      <c r="C30">
+        <v>12704310</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/run_records_clean.xlsx
+++ b/run_records_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongyuzhang/Library/Mobile Documents/com~apple~CloudDocs/Documents/Education/College/Research/PFURO_2023/SPARC_summer_23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0A17DC-6C1A-344A-9616-D5AA38B43F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B4C3D5-36FC-2447-8CF3-AC0D89674CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28420" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>runID</t>
   </si>
@@ -151,10 +151,40 @@
     <t>Third of a series of studies on effect of gyro on final distribution. Gyro = 100</t>
   </si>
   <si>
-    <t>Running Alexa's marker_set_06 with mhd = 0.8. Set 7</t>
-  </si>
-  <si>
-    <t>Running Alexa's marker_set_06 with mhd = 0.6. Set 8</t>
+    <t>~5000</t>
+  </si>
+  <si>
+    <t>Start of a series of studies on effect of center scaling factor for Npitch = 1</t>
+  </si>
+  <si>
+    <t>Start of a series of studies on effect of center scaling factor for Npitch = 3</t>
+  </si>
+  <si>
+    <t>Start of a series of studies on effect of center scaling factor for Npitch = 6</t>
+  </si>
+  <si>
+    <t>Start of a series of studies on effect of center scaling factor for Npitch = 9</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with mhd = 0.08. Set 7</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with mhd = 0.06. Set 8</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with mhd = 0.04. Set 9</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with mhd = 0.4. Set 10</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with mhd = 0.8. Set 11</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with mhd = 1.0. Set 12</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with mhd = 2.0. Set 13</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="167" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="167" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1042,7 +1072,7 @@
       <c r="C2" s="1">
         <v>12055080</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>5082</v>
       </c>
       <c r="E2">
@@ -1065,7 +1095,7 @@
       <c r="C3" s="1">
         <v>12060152</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>5082</v>
       </c>
       <c r="E3">
@@ -1085,7 +1115,7 @@
       <c r="C4" s="1">
         <v>12231478</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>20</v>
       </c>
       <c r="E4" t="s">
@@ -1105,7 +1135,7 @@
       <c r="C5" s="1">
         <v>12311117</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>5082</v>
       </c>
       <c r="E5">
@@ -1125,7 +1155,7 @@
       <c r="C6" s="1">
         <v>12392480</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
@@ -1145,7 +1175,7 @@
       <c r="C7" s="1">
         <v>12404151</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>5082</v>
       </c>
       <c r="E7">
@@ -1165,7 +1195,7 @@
       <c r="C8" s="1">
         <v>12453404</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>5082</v>
       </c>
       <c r="E8">
@@ -1188,7 +1218,7 @@
       <c r="C9">
         <v>12454497</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>5082</v>
       </c>
       <c r="E9">
@@ -1211,7 +1241,7 @@
       <c r="C10">
         <v>12465522</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>5082</v>
       </c>
       <c r="E10">
@@ -1234,7 +1264,7 @@
       <c r="C11">
         <v>12462873</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>5082</v>
       </c>
       <c r="E11">
@@ -1257,7 +1287,7 @@
       <c r="C12">
         <v>12488019</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
@@ -1277,7 +1307,7 @@
       <c r="C13">
         <v>12488308</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="s">
@@ -1300,7 +1330,7 @@
       <c r="C14">
         <v>12488377</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E14" t="s">
@@ -1323,7 +1353,7 @@
       <c r="C15">
         <v>12488912</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
@@ -1346,7 +1376,7 @@
       <c r="C16">
         <v>12529287</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>5082</v>
       </c>
       <c r="E16">
@@ -1369,7 +1399,7 @@
       <c r="C17">
         <v>12558507</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>5082</v>
       </c>
       <c r="E17">
@@ -1392,7 +1422,7 @@
       <c r="C18">
         <v>12558634</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>5082</v>
       </c>
       <c r="E18">
@@ -1415,7 +1445,7 @@
       <c r="C19">
         <v>12559324</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
@@ -1435,7 +1465,7 @@
       <c r="C20">
         <v>12559500</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E20" t="s">
@@ -1455,7 +1485,7 @@
       <c r="C21">
         <v>12623107</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E21" t="s">
@@ -1475,7 +1505,7 @@
       <c r="C22" s="1">
         <v>12617838</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>5082</v>
       </c>
       <c r="E22">
@@ -1492,6 +1522,7 @@
       <c r="C23">
         <v>12623082</v>
       </c>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -1500,6 +1531,7 @@
       <c r="C24">
         <v>12623866</v>
       </c>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -1508,6 +1540,7 @@
       <c r="C25">
         <v>12639727</v>
       </c>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -1519,7 +1552,7 @@
       <c r="C26">
         <v>12674017</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>5082</v>
       </c>
       <c r="E26">
@@ -1539,7 +1572,7 @@
       <c r="C27">
         <v>12674246</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>5082</v>
       </c>
       <c r="E27">
@@ -1559,7 +1592,7 @@
       <c r="C28">
         <v>12674407</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>5082</v>
       </c>
       <c r="E28">
@@ -1579,14 +1612,14 @@
       <c r="C29">
         <v>12704077</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1599,14 +1632,194 @@
       <c r="C30">
         <v>12704310</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>7139</v>
+      </c>
+      <c r="B31">
+        <v>7134</v>
+      </c>
+      <c r="C31">
+        <v>12782491</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>7140</v>
+      </c>
+      <c r="B32">
+        <v>7139</v>
+      </c>
+      <c r="C32">
+        <v>12783316</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>7141</v>
+      </c>
+      <c r="B33">
+        <v>7139</v>
+      </c>
+      <c r="C33">
+        <v>12783511</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>7142</v>
+      </c>
+      <c r="B34">
+        <v>7139</v>
+      </c>
+      <c r="C34">
+        <v>12783648</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>7143</v>
+      </c>
+      <c r="B35">
+        <v>7138</v>
+      </c>
+      <c r="C35">
+        <v>13105913</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>7144</v>
+      </c>
+      <c r="B36">
+        <v>7143</v>
+      </c>
+      <c r="C36">
+        <v>13105994</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>7145</v>
+      </c>
+      <c r="B37">
+        <v>7143</v>
+      </c>
+      <c r="C37">
+        <v>13106243</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>7146</v>
+      </c>
+      <c r="B38">
+        <v>7143</v>
+      </c>
+      <c r="C38">
+        <v>13106381</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>7147</v>
+      </c>
+      <c r="B39">
+        <v>7143</v>
+      </c>
+      <c r="C39">
+        <v>13106460</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/run_records_clean.xlsx
+++ b/run_records_clean.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongyuzhang/Library/Mobile Documents/com~apple~CloudDocs/Documents/Education/College/Research/PFURO_2023/SPARC_summer_23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B4C3D5-36FC-2447-8CF3-AC0D89674CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19918253-2016-C049-9822-0959B94DCC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28420" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="run_records_clean" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>runID</t>
   </si>
@@ -103,9 +116,6 @@
     <t>68 aborted</t>
   </si>
   <si>
-    <t xml:space="preserve"> 66 aborted</t>
-  </si>
-  <si>
     <t>75 aborted</t>
   </si>
   <si>
@@ -185,6 +195,60 @@
   </si>
   <si>
     <t>Running Alexa's marker_set_06 with mhd = 2.0. Set 13</t>
+  </si>
+  <si>
+    <t>66 aborted</t>
+  </si>
+  <si>
+    <t>Additional Notes</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with mhd on but = 0.0. New basis for comparisons</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with mhd = 0.02. Set 14</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with mhd = 0.03. Set 15</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with mhd = 0.05. Set 16</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with mhd = 0.07. Set 17</t>
+  </si>
+  <si>
+    <t>Running Alexa's marker_set_06 with mhd = 0.09. Set 18</t>
+  </si>
+  <si>
+    <t>deltaB_norm/B= 0.0559</t>
+  </si>
+  <si>
+    <t>deltaB_norm/B=0.024771</t>
+  </si>
+  <si>
+    <t>deltaB_norm/B=0.049728</t>
+  </si>
+  <si>
+    <t>deltaB_norm/B=0.000062</t>
+  </si>
+  <si>
+    <t>mhd</t>
+  </si>
+  <si>
+    <t>ratio = 0.62</t>
+  </si>
+  <si>
+    <t>deltaBnorm/B</t>
+  </si>
+  <si>
+    <t>totla particles</t>
+  </si>
+  <si>
+    <t>Running Alexa's one marker input 20 times. Now with only electron slowing down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rerunning with new record time steps and number of steps </t>
   </si>
 </sst>
 </file>
@@ -668,11 +732,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1029,20 +1097,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="167" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="84.5" customWidth="1"/>
-    <col min="7" max="7" width="27.1640625" customWidth="1"/>
+    <col min="7" max="7" width="84.5" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1059,10 +1133,24 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>7113</v>
       </c>
@@ -1078,14 +1166,14 @@
       <c r="E2">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>7114</v>
       </c>
@@ -1101,11 +1189,11 @@
       <c r="E3">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7115</v>
       </c>
@@ -1121,11 +1209,11 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>7116</v>
       </c>
@@ -1141,11 +1229,11 @@
       <c r="E5">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7117</v>
       </c>
@@ -1161,11 +1249,11 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7118</v>
       </c>
@@ -1181,11 +1269,11 @@
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7119</v>
       </c>
@@ -1201,14 +1289,14 @@
       <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7120</v>
       </c>
@@ -1224,14 +1312,14 @@
       <c r="E9">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7121</v>
       </c>
@@ -1247,14 +1335,14 @@
       <c r="E10">
         <v>6</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7122</v>
       </c>
@@ -1270,14 +1358,14 @@
       <c r="E11">
         <v>6</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7123</v>
       </c>
@@ -1293,11 +1381,11 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7124</v>
       </c>
@@ -1313,14 +1401,24 @@
       <c r="E13" t="s">
         <v>8</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <f>F13*0.62</f>
+        <v>6.2000000000000008E-6</v>
+      </c>
+      <c r="L13" s="3">
+        <v>5.657E+18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7125</v>
       </c>
@@ -1336,14 +1434,30 @@
       <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="G14" t="s">
         <v>24</v>
       </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" ref="K14:K45" si="0">F14*0.62</f>
+        <v>6.2000000000000003E-5</v>
+      </c>
+      <c r="L14" s="3">
+        <v>5.655E+18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7126</v>
       </c>
@@ -1359,14 +1473,24 @@
       <c r="E15" t="s">
         <v>8</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="G15" t="s">
         <v>25</v>
       </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="0"/>
+        <v>6.2E-4</v>
+      </c>
+      <c r="L15" s="3">
+        <v>5.647E+18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7127</v>
       </c>
@@ -1382,14 +1506,15 @@
       <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
       <c r="G16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>7128</v>
       </c>
@@ -1405,14 +1530,15 @@
       <c r="E17">
         <v>6</v>
       </c>
-      <c r="F17" t="s">
-        <v>30</v>
-      </c>
       <c r="G17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7129</v>
       </c>
@@ -1428,14 +1554,15 @@
       <c r="E18">
         <v>6</v>
       </c>
-      <c r="F18" t="s">
-        <v>31</v>
-      </c>
       <c r="G18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7130</v>
       </c>
@@ -1451,11 +1578,21 @@
       <c r="E19" t="s">
         <v>8</v>
       </c>
-      <c r="F19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="0"/>
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="L19" s="3">
+        <v>5.644E+18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>7131</v>
       </c>
@@ -1471,11 +1608,21 @@
       <c r="E20" t="s">
         <v>8</v>
       </c>
-      <c r="F20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="0"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="L20" s="3">
+        <v>5.521E+18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7132</v>
       </c>
@@ -1491,11 +1638,12 @@
       <c r="E21" t="s">
         <v>8</v>
       </c>
-      <c r="F21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>7133</v>
       </c>
@@ -1511,11 +1659,12 @@
       <c r="E22">
         <v>6</v>
       </c>
-      <c r="F22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>7133</v>
       </c>
@@ -1523,26 +1672,29 @@
         <v>12623082</v>
       </c>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>12623866</v>
       </c>
       <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>12639727</v>
       </c>
       <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7134</v>
       </c>
@@ -1558,11 +1710,12 @@
       <c r="E26">
         <v>6</v>
       </c>
-      <c r="F26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7135</v>
       </c>
@@ -1578,11 +1731,12 @@
       <c r="E27">
         <v>6</v>
       </c>
-      <c r="F27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7136</v>
       </c>
@@ -1598,11 +1752,12 @@
       <c r="E28">
         <v>6</v>
       </c>
-      <c r="F28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7137</v>
       </c>
@@ -1618,11 +1773,27 @@
       <c r="E29" t="s">
         <v>8</v>
       </c>
-      <c r="F29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>0.08</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29">
+        <v>0.62160000000000004</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="0"/>
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="L29" s="3">
+        <v>5.54E+18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>7138</v>
       </c>
@@ -1638,11 +1809,21 @@
       <c r="E30" t="s">
         <v>8</v>
       </c>
-      <c r="F30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>0.06</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="0"/>
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="L30" s="3">
+        <v>5.584E+18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>7139</v>
       </c>
@@ -1653,16 +1834,17 @@
         <v>12782491</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31">
         <v>6</v>
       </c>
-      <c r="F31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>7140</v>
       </c>
@@ -1673,16 +1855,17 @@
         <v>12783316</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E32">
         <v>6</v>
       </c>
-      <c r="F32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>7141</v>
       </c>
@@ -1693,16 +1876,17 @@
         <v>12783511</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33">
         <v>6</v>
       </c>
-      <c r="F33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7142</v>
       </c>
@@ -1713,16 +1897,17 @@
         <v>12783648</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34">
         <v>6</v>
       </c>
-      <c r="F34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7143</v>
       </c>
@@ -1738,11 +1923,27 @@
       <c r="E35" t="s">
         <v>8</v>
       </c>
-      <c r="F35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>0.04</v>
+      </c>
+      <c r="G35" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="L35" s="3">
+        <v>5.603E+18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>7144</v>
       </c>
@@ -1758,11 +1959,21 @@
       <c r="E36" t="s">
         <v>8</v>
       </c>
-      <c r="F36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>0.4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="0"/>
+        <v>0.248</v>
+      </c>
+      <c r="L36" s="3">
+        <v>4.748E+18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>7145</v>
       </c>
@@ -1778,11 +1989,21 @@
       <c r="E37" t="s">
         <v>8</v>
       </c>
-      <c r="F37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>0.8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.496</v>
+      </c>
+      <c r="L37" s="3">
+        <v>2.136E+18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>7146</v>
       </c>
@@ -1798,11 +2019,21 @@
       <c r="E38" t="s">
         <v>8</v>
       </c>
-      <c r="F38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" si="0"/>
+        <v>0.62</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1.487E+18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>7147</v>
       </c>
@@ -1818,11 +2049,250 @@
       <c r="E39" t="s">
         <v>8</v>
       </c>
-      <c r="F39" t="s">
-        <v>54</v>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>53</v>
+      </c>
+      <c r="K39" s="3">
+        <f t="shared" si="0"/>
+        <v>1.24</v>
+      </c>
+      <c r="L39" s="3">
+        <v>6.624E+17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>7148</v>
+      </c>
+      <c r="B40">
+        <v>7124</v>
+      </c>
+      <c r="C40">
+        <v>13252358</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>5.662E+18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>7149</v>
+      </c>
+      <c r="B41">
+        <v>7147</v>
+      </c>
+      <c r="C41">
+        <v>13257077</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>0.02</v>
+      </c>
+      <c r="G41" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="0"/>
+        <v>1.24E-2</v>
+      </c>
+      <c r="L41" s="3">
+        <v>5.638E+18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>7150</v>
+      </c>
+      <c r="B42">
+        <v>7149</v>
+      </c>
+      <c r="C42">
+        <v>13258401</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>0.03</v>
+      </c>
+      <c r="G42" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="L42" s="3">
+        <v>5.595E+18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>7151</v>
+      </c>
+      <c r="B43">
+        <v>7149</v>
+      </c>
+      <c r="C43">
+        <v>13258593</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>0.05</v>
+      </c>
+      <c r="G43" t="s">
+        <v>59</v>
+      </c>
+      <c r="K43" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1E-2</v>
+      </c>
+      <c r="L43" s="3">
+        <v>5.585E+18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>7152</v>
+      </c>
+      <c r="B44">
+        <v>7149</v>
+      </c>
+      <c r="C44">
+        <v>13266691</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>60</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="L44" s="3">
+        <v>5.554E+18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>7153</v>
+      </c>
+      <c r="B45">
+        <v>7149</v>
+      </c>
+      <c r="C45">
+        <v>13267328</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>0.09</v>
+      </c>
+      <c r="G45" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" t="s">
+        <v>62</v>
+      </c>
+      <c r="J45">
+        <v>0.62</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5799999999999995E-2</v>
+      </c>
+      <c r="L45" s="3">
+        <v>5.523E+18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>7154</v>
+      </c>
+      <c r="B46">
+        <v>7115</v>
+      </c>
+      <c r="C46">
+        <v>13981377</v>
+      </c>
+      <c r="D46" s="2">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>7155</v>
+      </c>
+      <c r="B47">
+        <v>7154</v>
+      </c>
+      <c r="C47">
+        <v>14054858</v>
+      </c>
+      <c r="D47" s="2">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
